--- a/statistics_files/nekls_executive_board/2024/2024_12_next_statistics_for_executive_board.xlsx
+++ b/statistics_files/nekls_executive_board/2024/2024_12_next_statistics_for_executive_board.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\nekls_executive_board\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DEC46F-B076-492B-883C-36160E42719E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35BA0F9-E8AC-4823-8470-A2E3D805F455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{173C74C7-6DED-436A-89F4-F7E38458C5AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{173C74C7-6DED-436A-89F4-F7E38458C5AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -762,457 +762,799 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="5">
+        <v>70513</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10922</v>
+      </c>
+      <c r="D3" s="5">
+        <v>11835</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="7">
+        <v>41652</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3882</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5218</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="5">
+        <v>110588</v>
+      </c>
+      <c r="C5" s="5">
+        <v>10614</v>
+      </c>
+      <c r="D5" s="5">
+        <v>9894</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1094</v>
+      </c>
+      <c r="D6" s="7">
+        <v>303</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="5">
+        <v>73874</v>
+      </c>
+      <c r="C7" s="5">
+        <v>12756</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9124</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="7">
+        <v>8519</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1699</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1817</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="5">
+        <v>8829</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1878</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1260</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="7">
+        <v>4154</v>
+      </c>
+      <c r="C10" s="7">
+        <v>647</v>
+      </c>
+      <c r="D10" s="7">
+        <v>340</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="5">
+        <v>1551</v>
+      </c>
+      <c r="C11" s="5">
+        <v>475</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="9">
+        <v>1428</v>
+      </c>
+      <c r="C13" s="9">
+        <v>304</v>
+      </c>
+      <c r="D13" s="9">
+        <v>448</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="11">
+        <v>4064</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1539</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1477</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="9">
+        <v>7553</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2588</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1542</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="11">
+        <v>5040</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2778</v>
+      </c>
+      <c r="D16" s="11">
+        <v>618</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="5">
+        <v>4121</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1351</v>
+      </c>
+      <c r="D17" s="5">
+        <v>535</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="7">
+        <v>27308</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3914</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5174</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="5">
+        <v>2129</v>
+      </c>
+      <c r="C19" s="5">
+        <v>992</v>
+      </c>
+      <c r="D19" s="5">
+        <v>546</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="7">
+        <v>27545</v>
+      </c>
+      <c r="C20" s="7">
+        <v>3866</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4293</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="5">
+        <v>557</v>
+      </c>
+      <c r="C21" s="5">
+        <v>627</v>
+      </c>
+      <c r="D21" s="5">
+        <v>185</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="B22" s="7">
+        <v>27424</v>
+      </c>
+      <c r="C22" s="7">
+        <v>3099</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4782</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="B23" s="5">
+        <v>2005</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1099</v>
+      </c>
+      <c r="D23" s="5">
+        <v>335</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="B24" s="7">
+        <v>30629</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3090</v>
+      </c>
+      <c r="D24" s="7">
+        <v>5685</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="B25" s="5">
+        <v>122510</v>
+      </c>
+      <c r="C25" s="5">
+        <v>10493</v>
+      </c>
+      <c r="D25" s="5">
+        <v>13846</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="B26" s="7">
+        <v>9381</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3716</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1335</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="B28" s="7">
+        <v>8233</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1898</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2033</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="5">
+        <v>3782</v>
+      </c>
+      <c r="C29" s="5">
+        <v>863</v>
+      </c>
+      <c r="D29" s="5">
+        <v>789</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="B30" s="7">
+        <v>23362</v>
+      </c>
+      <c r="C30" s="7">
+        <v>4144</v>
+      </c>
+      <c r="D30" s="7">
+        <v>4695</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="B31" s="5">
+        <v>707</v>
+      </c>
+      <c r="C31" s="5">
+        <v>168</v>
+      </c>
+      <c r="D31" s="5">
+        <v>435</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="B32" s="7">
+        <v>4490</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2568</v>
+      </c>
+      <c r="D32" s="7">
+        <v>477</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="B33" s="5">
+        <v>22008</v>
+      </c>
+      <c r="C33" s="5">
+        <v>5266</v>
+      </c>
+      <c r="D33" s="5">
+        <v>4470</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="B34" s="7">
+        <v>17455</v>
+      </c>
+      <c r="C34" s="7">
+        <v>5030</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3214</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="B35" s="5">
+        <v>7884</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1011</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1623</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="B36" s="7">
+        <v>87796</v>
+      </c>
+      <c r="C36" s="7">
+        <v>10138</v>
+      </c>
+      <c r="D36" s="7">
+        <v>8585</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="B37" s="5">
+        <v>12404</v>
+      </c>
+      <c r="C37" s="5">
+        <v>4635</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1668</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="B38" s="7">
+        <v>42814</v>
+      </c>
+      <c r="C38" s="7">
+        <v>3038</v>
+      </c>
+      <c r="D38" s="7">
+        <v>4102</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="B39" s="5">
+        <v>1881</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1660</v>
+      </c>
+      <c r="D39" s="5">
+        <v>308</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="B40" s="7">
+        <v>2161</v>
+      </c>
+      <c r="C40" s="7">
+        <v>811</v>
+      </c>
+      <c r="D40" s="7">
+        <v>859</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="B41" s="13">
+        <v>4060</v>
+      </c>
+      <c r="C41" s="13">
+        <v>874</v>
+      </c>
+      <c r="D41" s="13">
+        <v>178</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
+      <c r="B42" s="15">
+        <v>17934</v>
+      </c>
+      <c r="C42" s="15">
+        <v>866</v>
+      </c>
+      <c r="D42" s="15">
+        <v>505</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="B43" s="13">
+        <v>414</v>
+      </c>
+      <c r="C43" s="13">
+        <v>303</v>
+      </c>
+      <c r="D43" s="13">
+        <v>77</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
+      <c r="B44" s="15">
+        <v>1329</v>
+      </c>
+      <c r="C44" s="15">
+        <v>250</v>
+      </c>
+      <c r="D44" s="15">
+        <v>96</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
+      <c r="B45" s="13">
+        <v>0</v>
+      </c>
+      <c r="C45" s="13">
+        <v>0</v>
+      </c>
+      <c r="D45" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
+      <c r="B46" s="7">
+        <v>5182</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1683</v>
+      </c>
+      <c r="D46" s="7">
+        <v>645</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="B47" s="5">
+        <v>21868</v>
+      </c>
+      <c r="C47" s="5">
+        <v>5312</v>
+      </c>
+      <c r="D47" s="5">
+        <v>4178</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+      <c r="B48" s="7">
+        <v>51673</v>
+      </c>
+      <c r="C48" s="7">
+        <v>5320</v>
+      </c>
+      <c r="D48" s="7">
+        <v>7745</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="B49" s="5">
+        <v>23914</v>
+      </c>
+      <c r="C49" s="5">
+        <v>5318</v>
+      </c>
+      <c r="D49" s="5">
+        <v>2165</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="B50" s="7">
+        <v>19597</v>
+      </c>
+      <c r="C50" s="7">
+        <v>2384</v>
+      </c>
+      <c r="D50" s="7">
+        <v>4318</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="B51" s="5">
+        <v>51224</v>
+      </c>
+      <c r="C51" s="5">
+        <v>4867</v>
+      </c>
+      <c r="D51" s="5">
+        <v>7995</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
+      <c r="B52" s="7">
+        <v>8161</v>
+      </c>
+      <c r="C52" s="7">
+        <v>1564</v>
+      </c>
+      <c r="D52" s="7">
+        <v>1974</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="B53" s="5">
+        <v>16889</v>
+      </c>
+      <c r="C53" s="5">
+        <v>3361</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2833</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
+      <c r="B54" s="7">
+        <v>3537</v>
+      </c>
+      <c r="C54" s="7">
+        <v>2075</v>
+      </c>
+      <c r="D54" s="7">
+        <v>1440</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="B55" s="5">
+        <v>3342</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2146</v>
+      </c>
+      <c r="D55" s="5">
+        <v>245</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
+      <c r="B56" s="7">
+        <v>8461</v>
+      </c>
+      <c r="C56" s="7">
+        <v>1714</v>
+      </c>
+      <c r="D56" s="7">
+        <v>3383</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
+      <c r="B57" s="17">
+        <v>18085</v>
+      </c>
+      <c r="C57" s="17">
+        <v>7209</v>
+      </c>
+      <c r="D57" s="17">
+        <v>4085</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
+      <c r="B58" s="19">
+        <v>23737</v>
+      </c>
+      <c r="C58" s="19">
+        <v>2293</v>
+      </c>
+      <c r="D58" s="19">
+        <v>856</v>
+      </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
+      <c r="B59" s="21">
+        <v>1065955</v>
+      </c>
+      <c r="C59" s="21">
+        <v>162690</v>
+      </c>
+      <c r="D59" s="21">
+        <v>151631</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
